--- a/test.xlsx
+++ b/test.xlsx
@@ -1,140 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\02_研究室\04_卒論\05_入力フォーム\コード 最新\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FF0551-1A10-4011-9742-99CA02434A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="受付票" sheetId="1" r:id="rId1"/>
+    <sheet name="受付票" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
-  <si>
-    <t>No.</t>
-  </si>
-  <si>
-    <t>住所</t>
-  </si>
-  <si>
-    <t>名前（団体名）</t>
-  </si>
-  <si>
-    <t>担当者名</t>
-  </si>
-  <si>
-    <t>電話番号</t>
-  </si>
-  <si>
-    <t>FAX</t>
-  </si>
-  <si>
-    <t>派遣日時</t>
-  </si>
-  <si>
-    <t>派遣先の住所</t>
-  </si>
-  <si>
-    <t>派遣先の会場名</t>
-  </si>
-  <si>
-    <t>派遣先の電話番号</t>
-  </si>
-  <si>
-    <t>派遣先のFAX</t>
-  </si>
-  <si>
-    <t>申請事由</t>
-  </si>
-  <si>
-    <t>2025-10-09 12:22:18</t>
-  </si>
-  <si>
-    <t>北海道札幌市</t>
-  </si>
-  <si>
-    <t>丸山雄大</t>
-  </si>
-  <si>
-    <t>田中</t>
-  </si>
-  <si>
-    <t>09094391104</t>
-  </si>
-  <si>
-    <t>011</t>
-  </si>
-  <si>
-    <t>2025-10-16T12:21</t>
-  </si>
-  <si>
-    <t>千歳市</t>
-  </si>
-  <si>
-    <t>北ガス</t>
-  </si>
-  <si>
-    <t>090</t>
-  </si>
-  <si>
-    <t>診察</t>
-  </si>
-  <si>
-    <t>012</t>
-  </si>
-  <si>
-    <t>2025-10-16T12:22</t>
-  </si>
-  <si>
-    <t>2025-10-09 12:22:19</t>
-  </si>
-  <si>
-    <t>受付日時</t>
-    <rPh sb="0" eb="4">
-      <t>ウケツケニチジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>北海道札幌市</t>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="游ゴシック"/>
+      <charset val="128"/>
+      <family val="2"/>
       <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -150,29 +51,88 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -492,167 +452,300 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr codeName="Sheet1">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="3" max="3" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.25" style="1" customWidth="1"/>
+    <col width="14.75" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8.75" bestFit="1" customWidth="1" style="1" min="4" max="5"/>
+    <col width="8.75" bestFit="1" customWidth="1" style="1" min="7" max="7"/>
+    <col width="12.6640625" bestFit="1" customWidth="1" style="1" min="8" max="8"/>
+    <col width="14.75" bestFit="1" customWidth="1" style="1" min="9" max="9"/>
+    <col width="16.83203125" bestFit="1" customWidth="1" style="1" min="10" max="10"/>
+    <col width="12.5" bestFit="1" customWidth="1" style="1" min="11" max="11"/>
+    <col width="16.25" customWidth="1" style="1" min="12" max="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="inlineStr">
+        <is>
+          <t>No.</t>
+        </is>
+      </c>
+      <c r="B1" s="0" t="inlineStr">
+        <is>
+          <t>受付日時</t>
+        </is>
+      </c>
+      <c r="C1" s="0" t="inlineStr">
+        <is>
+          <t>住所</t>
+        </is>
+      </c>
+      <c r="D1" s="0" t="inlineStr">
+        <is>
+          <t>名前（団体名）</t>
+        </is>
+      </c>
+      <c r="E1" s="0" t="inlineStr">
+        <is>
+          <t>担当者名</t>
+        </is>
+      </c>
+      <c r="F1" s="0" t="inlineStr">
+        <is>
+          <t>電話番号</t>
+        </is>
+      </c>
+      <c r="G1" s="0" t="inlineStr">
+        <is>
+          <t>FAX</t>
+        </is>
+      </c>
+      <c r="H1" s="0" t="inlineStr">
+        <is>
+          <t>派遣日時</t>
+        </is>
+      </c>
+      <c r="I1" s="0" t="inlineStr">
+        <is>
+          <t>派遣先の住所</t>
+        </is>
+      </c>
+      <c r="J1" s="0" t="inlineStr">
+        <is>
+          <t>派遣先の会場名</t>
+        </is>
+      </c>
+      <c r="K1" s="0" t="inlineStr">
+        <is>
+          <t>派遣先の電話番号</t>
+        </is>
+      </c>
+      <c r="L1" s="0" t="inlineStr">
+        <is>
+          <t>派遣先のFAX</t>
+        </is>
+      </c>
+      <c r="M1" s="0" t="inlineStr">
+        <is>
+          <t>申請事由</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-09 12:22:18</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>北海道札幌市</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>丸山雄大</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>田中</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>09094391104</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="H2" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-16T12:21</t>
+        </is>
+      </c>
+      <c r="I2" s="0" t="inlineStr">
+        <is>
+          <t>千歳市</t>
+        </is>
+      </c>
+      <c r="J2" s="0" t="inlineStr">
+        <is>
+          <t>北ガス</t>
+        </is>
+      </c>
+      <c r="K2" s="0" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="L2" s="0" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="M2" s="0" t="inlineStr">
+        <is>
+          <t>診察</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-09 12:22:19</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>北海道札幌市</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>丸山雄大</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>田中</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>09094391104</t>
+        </is>
+      </c>
+      <c r="G3" s="0" t="inlineStr">
+        <is>
+          <t>012</t>
+        </is>
+      </c>
+      <c r="H3" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-16T12:22</t>
+        </is>
+      </c>
+      <c r="I3" s="0" t="inlineStr">
+        <is>
+          <t>千歳市</t>
+        </is>
+      </c>
+      <c r="J3" s="0" t="inlineStr">
+        <is>
+          <t>北ガス</t>
+        </is>
+      </c>
+      <c r="K3" s="0" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="L3" s="0" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="M3" s="0" t="inlineStr">
+        <is>
+          <t>診察</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>北海道札幌市</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>北海道札幌市</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-10-17 16:23:24</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>丸山</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2025-10-17T16:31</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -676,7 +676,7 @@
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="0" t="inlineStr">
         <is>
           <t>北海道札幌市</t>
         </is>
@@ -686,62 +686,380 @@
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>北海道札幌市</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>2025-10-17 16:23:24</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>北海道</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
         <is>
           <t>丸山</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>090</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
+      <c r="E6" s="0" t="inlineStr"/>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="G6" s="0" t="inlineStr"/>
+      <c r="H6" s="0" t="inlineStr">
         <is>
           <t>2025-10-17T16:31</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>北海道</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>北海道</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>090</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>北海道</t>
+      <c r="I6" s="0" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="J6" s="0" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="K6" s="0" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="L6" s="0" t="inlineStr"/>
+      <c r="M6" s="0" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-17 17:16:58</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>丸山</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr"/>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="G7" s="0" t="inlineStr"/>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-17T17:16</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="L7" s="0" t="inlineStr"/>
+      <c r="M7" s="0" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-17 17:17:43</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>丸山</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr"/>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="G8" s="0" t="inlineStr"/>
+      <c r="H8" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-17T17:16</t>
+        </is>
+      </c>
+      <c r="I8" s="0" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="J8" s="0" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="K8" s="0" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="L8" s="0" t="inlineStr"/>
+      <c r="M8" s="0" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-17 17:24:32</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>丸山</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr"/>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr"/>
+      <c r="H9" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-31T17:24</t>
+        </is>
+      </c>
+      <c r="I9" s="0" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="J9" s="0" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="K9" s="0" t="inlineStr">
+        <is>
+          <t>080診察</t>
+        </is>
+      </c>
+      <c r="L9" s="0" t="inlineStr"/>
+      <c r="M9" s="0" t="inlineStr">
+        <is>
+          <t>診察</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-17 17:29:26</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>佐藤</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr"/>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr"/>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-31T17:29</t>
+        </is>
+      </c>
+      <c r="I10" s="0" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="J10" s="0" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="K10" s="0" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="L10" s="0" t="inlineStr"/>
+      <c r="M10" s="0" t="inlineStr">
+        <is>
+          <t>診察</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-17 17:30:31</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>川北</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr"/>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr"/>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-24T17:30</t>
+        </is>
+      </c>
+      <c r="I11" s="0" t="inlineStr">
+        <is>
+          <t>厚別</t>
+        </is>
+      </c>
+      <c r="J11" s="0" t="inlineStr">
+        <is>
+          <t>北ガス</t>
+        </is>
+      </c>
+      <c r="K11" s="0" t="inlineStr">
+        <is>
+          <t>080</t>
+        </is>
+      </c>
+      <c r="L11" s="0" t="inlineStr"/>
+      <c r="M11" s="0" t="inlineStr">
+        <is>
+          <t>診察</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-10-17 17:36:57</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>丸山</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>2025-10-24T17:36</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>北ガス</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>090</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>診察</t>
         </is>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -1011,55 +1011,295 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="0" t="inlineStr">
         <is>
           <t>2025-10-17 17:36:57</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>北海道</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
         <is>
           <t>丸山</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="E12" s="0" t="inlineStr"/>
+      <c r="F12" s="0" t="inlineStr">
         <is>
           <t>090</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr">
+      <c r="G12" s="0" t="inlineStr"/>
+      <c r="H12" s="0" t="inlineStr">
         <is>
           <t>2025-10-24T17:36</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>北海道</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="I12" s="0" t="inlineStr">
+        <is>
+          <t>北海道</t>
+        </is>
+      </c>
+      <c r="J12" s="0" t="inlineStr">
         <is>
           <t>北ガス</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="K12" s="0" t="inlineStr">
         <is>
           <t>090</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
+      <c r="L12" s="0" t="inlineStr"/>
+      <c r="M12" s="0" t="inlineStr">
         <is>
           <t>診察</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-17 19:27:18</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>北海道千歳市美々1-2-3</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>株式会社　サンプル商事</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr"/>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>03-1234-5678</t>
+        </is>
+      </c>
+      <c r="G13" s="0" t="inlineStr">
+        <is>
+          <t>03-8765-4321</t>
+        </is>
+      </c>
+      <c r="H13" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-31T20:00</t>
+        </is>
+      </c>
+      <c r="I13" s="0" t="inlineStr">
+        <is>
+          <t>北海道札幌市厚別区厚別東二条3-1-1</t>
+        </is>
+      </c>
+      <c r="J13" s="0" t="inlineStr">
+        <is>
+          <t>千歳文化センター</t>
+        </is>
+      </c>
+      <c r="K13" s="0" t="inlineStr">
+        <is>
+          <t>09094391104</t>
+        </is>
+      </c>
+      <c r="L13" s="0" t="inlineStr"/>
+      <c r="M13" s="0" t="inlineStr">
+        <is>
+          <t>診察</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-17 19:30:53</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>北海道千歳市美々1-2-3</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>株式会社　サンプル商事</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>山田　太郎</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>03-1234-5678</t>
+        </is>
+      </c>
+      <c r="G14" s="0" t="inlineStr">
+        <is>
+          <t>03-8765-4321</t>
+        </is>
+      </c>
+      <c r="H14" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-17T19:30</t>
+        </is>
+      </c>
+      <c r="I14" s="0" t="inlineStr">
+        <is>
+          <t>北海道札幌市厚別区厚別東二条</t>
+        </is>
+      </c>
+      <c r="J14" s="0" t="inlineStr">
+        <is>
+          <t>北ガス</t>
+        </is>
+      </c>
+      <c r="K14" s="0" t="inlineStr">
+        <is>
+          <t>09094391104</t>
+        </is>
+      </c>
+      <c r="L14" s="0" t="inlineStr"/>
+      <c r="M14" s="0" t="inlineStr">
+        <is>
+          <t>診察</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-17 19:34:10</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>北海道千歳市美々1-2-3</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>株式会社　サンプル商事</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>山田　太郎</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>03-1234-5678</t>
+        </is>
+      </c>
+      <c r="G15" s="0" t="inlineStr">
+        <is>
+          <t>03-8765-4321</t>
+        </is>
+      </c>
+      <c r="H15" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-31T19:34</t>
+        </is>
+      </c>
+      <c r="I15" s="0" t="inlineStr">
+        <is>
+          <t>ま</t>
+        </is>
+      </c>
+      <c r="J15" s="0" t="inlineStr">
+        <is>
+          <t>ま</t>
+        </is>
+      </c>
+      <c r="K15" s="0" t="inlineStr">
+        <is>
+          <t>た</t>
+        </is>
+      </c>
+      <c r="L15" s="0" t="inlineStr"/>
+      <c r="M15" s="0" t="inlineStr">
+        <is>
+          <t>た</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-10-17 19:52:30</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>北海道千歳市美々1-2-3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>株式会社　サンプル商事</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>山田　太郎</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>03-1234-5678</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>03-8765-4321</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>2025-10-17 19:51〜19:51</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>北海道札幌市厚別区厚別東二条</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>北ガス</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0909</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>診察をお願いしたい</t>
         </is>
       </c>
     </row>

--- a/test.xlsx
+++ b/test.xlsx
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -1243,63 +1243,791 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="0" t="inlineStr">
         <is>
           <t>2025-10-17 19:52:30</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" s="0" t="inlineStr">
         <is>
           <t>北海道千歳市美々1-2-3</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="0" t="inlineStr">
         <is>
           <t>株式会社　サンプル商事</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" s="0" t="inlineStr">
         <is>
           <t>山田　太郎</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F16" s="0" t="inlineStr">
         <is>
           <t>03-1234-5678</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G16" s="0" t="inlineStr">
         <is>
           <t>03-8765-4321</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" s="0" t="inlineStr">
         <is>
           <t>2025-10-17 19:51〜19:51</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="I16" s="0" t="inlineStr">
         <is>
           <t>北海道札幌市厚別区厚別東二条</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="J16" s="0" t="inlineStr">
         <is>
           <t>北ガス</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="K16" s="0" t="inlineStr">
         <is>
           <t>0909</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
+      <c r="L16" s="0" t="inlineStr"/>
+      <c r="M16" s="0" t="inlineStr">
         <is>
           <t>診察をお願いしたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-21 15:42:09</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>北海道千歳市美々1-2-3</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>株式会社　サンプル商事</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>山田　太郎</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>03-1234-5678</t>
+        </is>
+      </c>
+      <c r="G17" s="0" t="inlineStr">
+        <is>
+          <t>03-8765-4321</t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-21 15:41〜15:41</t>
+        </is>
+      </c>
+      <c r="I17" s="0" t="inlineStr">
+        <is>
+          <t>北海道札幌市厚別区厚別東二条</t>
+        </is>
+      </c>
+      <c r="J17" s="0" t="inlineStr">
+        <is>
+          <t>北ガス</t>
+        </is>
+      </c>
+      <c r="K17" s="0" t="inlineStr"/>
+      <c r="M17" s="0" t="inlineStr">
+        <is>
+          <t>イベント</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-21 15:44:01</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>北海道千歳市美々1-2-3</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>株式会社　サンプル商事</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>山田　太郎</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>03-1234-5678</t>
+        </is>
+      </c>
+      <c r="G18" s="0" t="inlineStr">
+        <is>
+          <t>03-8765-4321</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-21 15:43〜15:43</t>
+        </is>
+      </c>
+      <c r="I18" s="0" t="inlineStr">
+        <is>
+          <t>北海道札幌市厚別区厚別東二条</t>
+        </is>
+      </c>
+      <c r="J18" s="0" t="inlineStr">
+        <is>
+          <t>北ガス</t>
+        </is>
+      </c>
+      <c r="K18" s="0" t="inlineStr"/>
+      <c r="M18" s="0" t="inlineStr">
+        <is>
+          <t>イベント</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-21 15:44:21</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>北海道千歳市美々1-2-3</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>株式会社　サンプル商事</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>山田　太郎</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>03-1234-5678</t>
+        </is>
+      </c>
+      <c r="G19" s="0" t="inlineStr">
+        <is>
+          <t>03-8765-4321</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-21 15:44〜15:44</t>
+        </is>
+      </c>
+      <c r="I19" s="0" t="inlineStr">
+        <is>
+          <t>北海道札幌市厚別区厚別東二条</t>
+        </is>
+      </c>
+      <c r="J19" s="0" t="inlineStr">
+        <is>
+          <t>北ガス</t>
+        </is>
+      </c>
+      <c r="K19" s="0" t="inlineStr"/>
+      <c r="M19" s="0" t="inlineStr">
+        <is>
+          <t>イベント</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-21 15:54:14</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>北海道千歳市美々1-2-3</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>株式会社　サンプル商事</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>山田　太郎</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>03-1234-5678</t>
+        </is>
+      </c>
+      <c r="G20" s="0" t="inlineStr">
+        <is>
+          <t>03-8765-4321</t>
+        </is>
+      </c>
+      <c r="H20" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-21 15:54〜15:54</t>
+        </is>
+      </c>
+      <c r="I20" s="0" t="inlineStr">
+        <is>
+          <t>北海道札幌市厚別区厚別東二条3</t>
+        </is>
+      </c>
+      <c r="J20" s="0" t="inlineStr">
+        <is>
+          <t>北ガス</t>
+        </is>
+      </c>
+      <c r="K20" s="0" t="inlineStr"/>
+      <c r="M20" s="0" t="inlineStr">
+        <is>
+          <t>イベント</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-21 16:10:05</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>北海道千歳市美々1-2-3</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>株式会社　サンプル商事</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>山田　太郎</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>03-1234-5678</t>
+        </is>
+      </c>
+      <c r="G21" s="0" t="inlineStr">
+        <is>
+          <t>03-8765-4321</t>
+        </is>
+      </c>
+      <c r="H21" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-21 16:09〜16:09</t>
+        </is>
+      </c>
+      <c r="I21" s="0" t="inlineStr">
+        <is>
+          <t>北海道札幌市厚別区厚別東二条</t>
+        </is>
+      </c>
+      <c r="J21" s="0" t="inlineStr">
+        <is>
+          <t>北ガス</t>
+        </is>
+      </c>
+      <c r="K21" s="0" t="inlineStr"/>
+      <c r="M21" s="0" t="inlineStr">
+        <is>
+          <t>イベント</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-21 16:12:47</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>北海道千歳市美々1-2-3</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>株式会社　サンプル商事</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>山田　太郎</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>03-1234-5678</t>
+        </is>
+      </c>
+      <c r="G22" s="0" t="inlineStr">
+        <is>
+          <t>03-8765-4321</t>
+        </is>
+      </c>
+      <c r="H22" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-21 16:12〜16:12</t>
+        </is>
+      </c>
+      <c r="I22" s="0" t="inlineStr">
+        <is>
+          <t>北海道札幌市厚別区厚別東一条</t>
+        </is>
+      </c>
+      <c r="J22" s="0" t="inlineStr">
+        <is>
+          <t>北ガス</t>
+        </is>
+      </c>
+      <c r="K22" s="0" t="inlineStr"/>
+      <c r="M22" s="0" t="inlineStr">
+        <is>
+          <t>イベント</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-21 16:13:39</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>北海道千歳市美々1-2-3</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>株式会社　サンプル商事</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>山田　太郎</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>03-1234-5678</t>
+        </is>
+      </c>
+      <c r="G23" s="0" t="inlineStr">
+        <is>
+          <t>03-8765-4321</t>
+        </is>
+      </c>
+      <c r="H23" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-21 16:13〜16:13</t>
+        </is>
+      </c>
+      <c r="I23" s="0" t="inlineStr">
+        <is>
+          <t>北海道札幌市厚別区厚別東二条</t>
+        </is>
+      </c>
+      <c r="J23" s="0" t="inlineStr">
+        <is>
+          <t>北ガス</t>
+        </is>
+      </c>
+      <c r="K23" s="0" t="inlineStr"/>
+      <c r="M23" s="0" t="inlineStr">
+        <is>
+          <t>イベント</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-21 16:14:32</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>北海道千歳市美々1-2-3</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>株式会社　サンプル商事</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>山田　太郎</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>03-1234-5678</t>
+        </is>
+      </c>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t>03-8765-4321</t>
+        </is>
+      </c>
+      <c r="H24" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-21 16:14〜16:14</t>
+        </is>
+      </c>
+      <c r="I24" s="0" t="inlineStr">
+        <is>
+          <t>北海道札幌市白石区東札幌四条</t>
+        </is>
+      </c>
+      <c r="J24" s="0" t="inlineStr">
+        <is>
+          <t>北ガス</t>
+        </is>
+      </c>
+      <c r="K24" s="0" t="inlineStr"/>
+      <c r="M24" s="0" t="inlineStr">
+        <is>
+          <t>イベント</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-21 16:20:37</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>北海道千歳市美々1-2-3</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>株式会社　サンプル商事</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>山田　太郎</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>03-1234-5678</t>
+        </is>
+      </c>
+      <c r="G25" s="0" t="inlineStr">
+        <is>
+          <t>03-8765-4321</t>
+        </is>
+      </c>
+      <c r="H25" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-21 16:20〜16:20</t>
+        </is>
+      </c>
+      <c r="I25" s="0" t="inlineStr">
+        <is>
+          <t>北海道札幌市厚別区厚別東二条</t>
+        </is>
+      </c>
+      <c r="J25" s="0" t="inlineStr">
+        <is>
+          <t>北ガス</t>
+        </is>
+      </c>
+      <c r="K25" s="0" t="inlineStr"/>
+      <c r="M25" s="0" t="inlineStr">
+        <is>
+          <t>イベント</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-21 16:23:07</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>北海道千歳市美々1-2-3</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>株式会社　サンプル商事</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>山田　太郎</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>03-1234-5678</t>
+        </is>
+      </c>
+      <c r="G26" s="0" t="inlineStr">
+        <is>
+          <t>03-8765-4321</t>
+        </is>
+      </c>
+      <c r="H26" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-21 16:22〜16:22</t>
+        </is>
+      </c>
+      <c r="I26" s="0" t="inlineStr">
+        <is>
+          <t>北海道札幌市厚別区厚別東二条</t>
+        </is>
+      </c>
+      <c r="J26" s="0" t="inlineStr">
+        <is>
+          <t>北ガス</t>
+        </is>
+      </c>
+      <c r="K26" s="0" t="inlineStr"/>
+      <c r="M26" s="0" t="inlineStr">
+        <is>
+          <t>イベント</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-21 16:33:08</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>北海道千歳市美々1-2-3</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>株式会社　サンプル商事</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>山田　太郎</t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>03-1234-5678</t>
+        </is>
+      </c>
+      <c r="G27" s="0" t="inlineStr">
+        <is>
+          <t>03-8765-4321</t>
+        </is>
+      </c>
+      <c r="H27" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-21 16:32〜16:32</t>
+        </is>
+      </c>
+      <c r="I27" s="0" t="inlineStr">
+        <is>
+          <t>北海道札幌市厚別区厚別東二条</t>
+        </is>
+      </c>
+      <c r="J27" s="0" t="inlineStr">
+        <is>
+          <t>北ガス</t>
+        </is>
+      </c>
+      <c r="K27" s="0" t="inlineStr"/>
+      <c r="M27" s="0" t="inlineStr">
+        <is>
+          <t>イベント</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-21 16:33:26</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>北海道千歳市美々1-2-3</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>株式会社　サンプル商事</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>山田　太郎</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>03-1234-5678</t>
+        </is>
+      </c>
+      <c r="G28" s="0" t="inlineStr">
+        <is>
+          <t>03-8765-4321</t>
+        </is>
+      </c>
+      <c r="H28" s="0" t="inlineStr">
+        <is>
+          <t>2025-10-21 16:32〜16:32</t>
+        </is>
+      </c>
+      <c r="I28" s="0" t="inlineStr">
+        <is>
+          <t>北海道札幌市厚別区厚別東二条</t>
+        </is>
+      </c>
+      <c r="J28" s="0" t="inlineStr">
+        <is>
+          <t>北ガス</t>
+        </is>
+      </c>
+      <c r="K28" s="0" t="inlineStr"/>
+      <c r="M28" s="0" t="inlineStr">
+        <is>
+          <t>イベント</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-10-21 16:33:35</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>北海道千歳市美々1-2-3</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>株式会社　サンプル商事</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>山田　太郎</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>03-1234-5678</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>03-8765-4321</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>2025-10-21 16:32〜16:32</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>北海道札幌市厚別区厚別東二条</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>北ガス</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>イベントの</t>
         </is>
       </c>
     </row>
